--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H2">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.3874184929622</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N2">
-        <v>27.3874184929622</v>
+        <v>0.182684</v>
       </c>
       <c r="O2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q2">
-        <v>149.7069706445799</v>
+        <v>0.3441868660057779</v>
       </c>
       <c r="R2">
-        <v>149.7069706445799</v>
+        <v>3.097681794052</v>
       </c>
       <c r="S2">
-        <v>0.1599056261529276</v>
+        <v>0.0003541306847311385</v>
       </c>
       <c r="T2">
-        <v>0.1599056261529276</v>
+        <v>0.0003541306847311385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H3">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.72700770202426</v>
+        <v>28.046323</v>
       </c>
       <c r="N3">
-        <v>3.72700770202426</v>
+        <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q3">
-        <v>20.37282311885106</v>
+        <v>158.5225200294897</v>
       </c>
       <c r="R3">
-        <v>20.37282311885106</v>
+        <v>1426.702680265407</v>
       </c>
       <c r="S3">
-        <v>0.02176070374877138</v>
+        <v>0.1631023554582888</v>
       </c>
       <c r="T3">
-        <v>0.02176070374877138</v>
+        <v>0.1631023554582888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3597668135241</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H4">
-        <v>16.3597668135241</v>
+        <v>16.956503</v>
       </c>
       <c r="I4">
-        <v>0.5437016202973917</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J4">
-        <v>0.5437016202973917</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.3874184929622</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N4">
-        <v>27.3874184929622</v>
+        <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q4">
-        <v>448.0517801692592</v>
+        <v>21.94248546085856</v>
       </c>
       <c r="R4">
-        <v>448.0517801692592</v>
+        <v>197.482369147727</v>
       </c>
       <c r="S4">
-        <v>0.4785749130345733</v>
+        <v>0.02257642045186712</v>
       </c>
       <c r="T4">
-        <v>0.4785749130345733</v>
+        <v>0.02257642045186712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H5">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.72700770202426</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N5">
-        <v>3.72700770202426</v>
+        <v>0.182684</v>
       </c>
       <c r="O5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q5">
-        <v>60.97297691732521</v>
+        <v>0.999116394558667</v>
       </c>
       <c r="R5">
-        <v>60.97297691732521</v>
+        <v>8.992047551028001</v>
       </c>
       <c r="S5">
-        <v>0.06512670726281829</v>
+        <v>0.001027981622416782</v>
       </c>
       <c r="T5">
-        <v>0.06512670726281829</v>
+        <v>0.001027981622416782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.263569808391409</v>
+        <v>16.407289</v>
       </c>
       <c r="H6">
-        <v>8.263569808391409</v>
+        <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.2746320498009094</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J6">
-        <v>0.2746320498009094</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.3874184929622</v>
+        <v>28.046323</v>
       </c>
       <c r="N6">
-        <v>27.3874184929622</v>
+        <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q6">
-        <v>226.317844588223</v>
+        <v>460.1641268483471</v>
       </c>
       <c r="R6">
-        <v>226.317844588223</v>
+        <v>4141.477141635123</v>
       </c>
       <c r="S6">
-        <v>0.2417355484026086</v>
+        <v>0.473458616305179</v>
       </c>
       <c r="T6">
-        <v>0.2417355484026086</v>
+        <v>0.4734586163051789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.263569808391409</v>
+        <v>16.407289</v>
       </c>
       <c r="H7">
-        <v>8.263569808391409</v>
+        <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.2746320498009094</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J7">
-        <v>0.2746320498009094</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72700770202426</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N7">
-        <v>3.72700770202426</v>
+        <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q7">
-        <v>30.79838832208992</v>
+        <v>63.69533275840034</v>
       </c>
       <c r="R7">
-        <v>30.79838832208992</v>
+        <v>573.2579948256031</v>
       </c>
       <c r="S7">
-        <v>0.03289650139830081</v>
+        <v>0.06553553906827861</v>
       </c>
       <c r="T7">
-        <v>0.03289650139830081</v>
+        <v>0.06553553906827861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.323166333333333</v>
+      </c>
+      <c r="H8">
+        <v>24.969499</v>
+      </c>
+      <c r="I8">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="J8">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06089466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.182684</v>
+      </c>
+      <c r="O8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="P8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="Q8">
+        <v>0.5068364394795556</v>
+      </c>
+      <c r="R8">
+        <v>4.561527955316</v>
+      </c>
+      <c r="S8">
+        <v>0.0005214793273273078</v>
+      </c>
+      <c r="T8">
+        <v>0.0005214793273273078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.323166333333333</v>
+      </c>
+      <c r="H9">
+        <v>24.969499</v>
+      </c>
+      <c r="I9">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="J9">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.046323</v>
+      </c>
+      <c r="N9">
+        <v>84.138969</v>
+      </c>
+      <c r="O9">
+        <v>0.8767392739472014</v>
+      </c>
+      <c r="P9">
+        <v>0.8767392739472013</v>
+      </c>
+      <c r="Q9">
+        <v>233.4342113673923</v>
+      </c>
+      <c r="R9">
+        <v>2100.907902306531</v>
+      </c>
+      <c r="S9">
+        <v>0.2401783021837336</v>
+      </c>
+      <c r="T9">
+        <v>0.2401783021837336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.323166333333333</v>
+      </c>
+      <c r="H10">
+        <v>24.969499</v>
+      </c>
+      <c r="I10">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="J10">
+        <v>0.2739449564092387</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.882136333333333</v>
+      </c>
+      <c r="N10">
+        <v>11.646409</v>
+      </c>
+      <c r="O10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="P10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="Q10">
+        <v>32.31166643101011</v>
+      </c>
+      <c r="R10">
+        <v>290.804997879091</v>
+      </c>
+      <c r="S10">
+        <v>0.03324517489817774</v>
+      </c>
+      <c r="T10">
+        <v>0.03324517489817774</v>
       </c>
     </row>
   </sheetData>
